--- a/2023/armenia_premier-league_2023-2024.xlsx
+++ b/2023/armenia_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +3953,98 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45189.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alashkert</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ararat Yerevan</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>18/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20/09/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>18/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>20/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>18/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>20/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/alashkert-ararat-yerevan/2sxoU7FM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/armenia_premier-league_2023-2024.xlsx
+++ b/2023/armenia_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,6 +4045,98 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45190.70833333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Noah</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Pyunik Yerevan</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>20/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>21/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>20/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>21/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>20/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>21/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/noah-pyunik-yerevan/6FrxWTpA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/armenia_premier-league_2023-2024.xlsx
+++ b/2023/armenia_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,190 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>BKMA</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>23/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/van-bkma/8r57o9pc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Ararat Yerevan</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Urartu</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/ararat-yerevan-urartu/d4ykTRUS/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/armenia_premier-league_2023-2024.xlsx
+++ b/2023/armenia_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,190 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45194.58333333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pyunik Yerevan</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Shirak Gyumri</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/pyunik-yerevan-shirak-gyumri/GlILN5hj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>armenia</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45194.66666666666</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ararat-Armenia</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alashkert</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>25/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>25/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>25/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/armenia/premier-league/ararat-armenia-alashkert/bDNGOowp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
